--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -4,22 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11640" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="11640" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="hospital" sheetId="1" r:id="rId1"/>
     <sheet name="team" sheetId="2" r:id="rId2"/>
     <sheet name="Clinic" sheetId="3" r:id="rId3"/>
-    <sheet name="Client Company" sheetId="4" r:id="rId4"/>
-    <sheet name="Client Subsidiary" sheetId="5" r:id="rId5"/>
-    <sheet name="Client Business Unit" sheetId="6" r:id="rId6"/>
+    <sheet name="clientCompany" sheetId="4" r:id="rId4"/>
+    <sheet name="clientSubsidiary" sheetId="5" r:id="rId5"/>
+    <sheet name="clientBusinessUnit" sheetId="6" r:id="rId6"/>
+    <sheet name="supplierCompany" sheetId="7" r:id="rId7"/>
+    <sheet name="supplierSubsidiary" sheetId="8" r:id="rId8"/>
+    <sheet name="suplierBusinessUnit" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="72">
   <si>
     <t>companyName</t>
   </si>
@@ -205,6 +208,36 @@
   </si>
   <si>
     <t>note</t>
+  </si>
+  <si>
+    <t>supplierCompanyTaxID</t>
+  </si>
+  <si>
+    <t>supplierCompanyName</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>supplireCompanyType</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>subsidairyName</t>
+  </si>
+  <si>
+    <t>subsidairyType</t>
+  </si>
+  <si>
+    <t>supplierCompany</t>
+  </si>
+  <si>
+    <t>supplierSubsidiary</t>
+  </si>
+  <si>
+    <t>businessUnitType</t>
   </si>
 </sst>
 </file>
@@ -212,10 +245,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -234,9 +267,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,10 +288,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,11 +312,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,6 +332,29 @@
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,52 +381,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -363,7 +396,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -379,187 +412,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,8 +609,71 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,212 +703,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -820,17 +853,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
@@ -1163,109 +1190,109 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="15" width="9" style="2"/>
-    <col min="16" max="16" width="11.5" style="2"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="1" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="11.5" style="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="1:17">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3"/>
+      <c r="Q1" s="2"/>
     </row>
     <row r="2" ht="42.75" spans="1:16">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>2342432</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>3221212</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1</v>
-      </c>
-      <c r="P2" s="2">
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
         <v>7898784565</v>
       </c>
     </row>
@@ -1374,28 +1401,28 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1409,13 +1436,13 @@
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="1">
         <v>32323</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="1">
@@ -1444,12 +1471,12 @@
       </c>
     </row>
     <row r="3" spans="4:6">
-      <c r="D3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="4:6">
-      <c r="D4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1466,180 +1493,180 @@
   <sheetPr/>
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="16" width="9" style="2"/>
-    <col min="17" max="17" width="11.5" style="2"/>
-    <col min="18" max="24" width="9" style="2"/>
-    <col min="25" max="25" width="11.5" style="2"/>
-    <col min="26" max="16384" width="9" style="2"/>
+    <col min="1" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="11.5" style="1"/>
+    <col min="18" max="24" width="9" style="1"/>
+    <col min="25" max="25" width="11.5" style="1"/>
+    <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="1:25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" ht="42.75" spans="1:25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>12334</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>344323</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1</v>
-      </c>
-      <c r="P2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="2">
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
         <v>7845987845</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>2</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>2</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>2</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>2</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>2</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>2</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>2</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>9878456589</v>
       </c>
     </row>
     <row r="3" spans="7:9">
-      <c r="G3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="G3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="7:9">
-      <c r="G4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="G4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1662,172 +1689,172 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="16" width="9" style="2"/>
-    <col min="17" max="17" width="11.5" style="2"/>
-    <col min="18" max="24" width="9" style="2"/>
-    <col min="25" max="25" width="11.5" style="2"/>
-    <col min="26" max="16384" width="9" style="2"/>
+    <col min="1" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="11.5" style="1"/>
+    <col min="18" max="24" width="9" style="1"/>
+    <col min="25" max="25" width="11.5" style="1"/>
+    <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="1:25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" ht="42.75" spans="1:25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>4323423</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>435435</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1</v>
-      </c>
-      <c r="P2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="2">
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
         <v>7845984565</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>2</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>2</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>2</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>2</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>2</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>2</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>2</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>7845325698</v>
       </c>
     </row>
     <row r="3" spans="9:9">
-      <c r="I3" s="3"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="9:9">
-      <c r="I4" s="3"/>
+      <c r="I4" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1871,62 +1898,194 @@
       <c r="F1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
